--- a/CETC/ExcelFile/devicesDataEach.xlsx
+++ b/CETC/ExcelFile/devicesDataEach.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="34">
   <si>
     <t>正常</t>
   </si>
@@ -497,7 +497,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A19" sqref="A19:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1135,28 +1135,28 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1168,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F25"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1775,61 +1775,9 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" t="s">
         <v>4</v>
       </c>
     </row>
